--- a/MatrizLexico.xlsx
+++ b/MatrizLexico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C823F93-2720-4F32-92F0-8EFF37DD5B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471923AA-6E98-4E2E-A915-655DF563A6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA2783E6-BAA9-4727-8B13-C4F7A4C9E798}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA2783E6-BAA9-4727-8B13-C4F7A4C9E798}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -685,11 +679,11 @@
   <dimension ref="A1:AU55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="825" ySplit="1350" topLeftCell="L27" activePane="bottomRight"/>
+      <pane xSplit="825" ySplit="1350" topLeftCell="N16" activePane="bottomRight"/>
       <selection activeCell="B8" sqref="B8"/>
       <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A39:A51"/>
-      <selection pane="bottomRight" activeCell="AA37" sqref="AA37"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:A39"/>
+      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,8 +4192,8 @@
       <c r="W25" s="9">
         <v>23</v>
       </c>
-      <c r="X25" s="6">
-        <v>-51</v>
+      <c r="X25" s="11">
+        <v>23</v>
       </c>
       <c r="Y25" s="9">
         <v>23</v>
@@ -6130,56 +6124,150 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="39" spans="1:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="7"/>
+    <row r="39" spans="1:47" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9">
+        <v>23</v>
+      </c>
+      <c r="C39" s="9">
+        <v>23</v>
+      </c>
+      <c r="D39" s="9">
+        <v>23</v>
+      </c>
+      <c r="E39" s="9">
+        <v>23</v>
+      </c>
+      <c r="F39" s="9">
+        <v>23</v>
+      </c>
+      <c r="G39" s="9">
+        <v>23</v>
+      </c>
+      <c r="H39" s="9">
+        <v>23</v>
+      </c>
+      <c r="I39" s="9">
+        <v>23</v>
+      </c>
+      <c r="J39" s="9">
+        <v>23</v>
+      </c>
+      <c r="K39" s="9">
+        <v>23</v>
+      </c>
+      <c r="L39" s="9">
+        <v>23</v>
+      </c>
+      <c r="M39" s="9">
+        <v>23</v>
+      </c>
+      <c r="N39" s="9">
+        <v>23</v>
+      </c>
+      <c r="O39" s="9">
+        <v>23</v>
+      </c>
+      <c r="P39" s="9">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>23</v>
+      </c>
+      <c r="R39" s="9">
+        <v>23</v>
+      </c>
+      <c r="S39" s="9">
+        <v>23</v>
+      </c>
+      <c r="T39" s="9">
+        <v>23</v>
+      </c>
+      <c r="U39" s="9">
+        <v>23</v>
+      </c>
+      <c r="V39" s="9">
+        <v>23</v>
+      </c>
+      <c r="W39" s="9">
+        <v>23</v>
+      </c>
+      <c r="X39" s="6">
+        <v>-51</v>
+      </c>
+      <c r="Y39" s="9">
+        <v>23</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AE39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AG39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AJ39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AK39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AL39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AM39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AN39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AO39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AP39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AQ39" s="6">
+        <v>-43</v>
+      </c>
+      <c r="AR39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AS39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AT39" s="9">
+        <v>23</v>
+      </c>
+      <c r="AU39" s="9">
+        <v>23</v>
+      </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>

--- a/MatrizLexico.xlsx
+++ b/MatrizLexico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\NetBeansProjects\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471923AA-6E98-4E2E-A915-655DF563A6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372CA80-ABFA-46A5-9BD3-1E88BA141794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA2783E6-BAA9-4727-8B13-C4F7A4C9E798}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA2783E6-BAA9-4727-8B13-C4F7A4C9E798}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -679,11 +679,11 @@
   <dimension ref="A1:AU55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="825" ySplit="1350" topLeftCell="N16" activePane="bottomRight"/>
+      <pane xSplit="825" ySplit="1350" topLeftCell="Q10" activePane="bottomRight"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:A39"/>
-      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +904,7 @@
         <v>16</v>
       </c>
       <c r="X2" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="9">
         <v>24</v>
